--- a/participants/participant_40/participant_40_conditions.xlsx
+++ b/participants/participant_40/participant_40_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16498731258197482" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16498731258457801" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16498731258477492" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16498731258617468" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_7-16498731262950017" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_0-16498731263520412" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_4-1649873126513002" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-1649873127201597" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-1649873127647705" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16498731284610038" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-1649873128592003" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16498731291962066" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16498731294282029" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16498731294581747" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16498731294691677" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16498731294701684" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16498731294861689" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16498731294871683" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16498731295002067" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16498731295041735" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16498731295161715" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16498731295322056" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16498731295481715" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-1650291262568224" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16502912625910232" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16502912625930326" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16502912626217852" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_2-16502912632942007" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_6-16502912634965765" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_0-1650291264204073" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16502912646887205" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16502912647515936" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16502912647918277" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16502912650122123" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-1650291265115218" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16502912657252526" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16502912657404704" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16502912657529967" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16502912657539976" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-1650291265768922" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-1650291265768922" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16502912657844229" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16502912657905576" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16502912658150175" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16502912658312628" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16502912658630412" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -986,14 +986,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1053,11 +1053,11 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1117,11 +1117,11 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1130,14 +1130,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1149,11 +1149,11 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1457,11 +1457,11 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2310,14 +2310,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\NS_TO-1649871875179094.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-1649862266211546.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497949958633645.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2867,15 +2867,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\RS_TO-16498717396379285.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-1649862266211546.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3155,15 +3155,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_17.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3252,11 +3252,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_11.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_4.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_26.jpg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,11 +3336,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3357,11 +3357,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_1.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,11 +3420,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_19.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3508,15 +3508,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3525,19 +3525,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3546,19 +3546,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -3927,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -3955,7 +3955,7 @@
         <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4152,10 +4152,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -4202,10 +4202,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -4277,7 +4277,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -4352,7 +4352,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4389,11 +4389,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -4731,7 +4731,7 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4828,10 +4828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4878,10 +4878,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5053,10 +5053,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5078,10 +5078,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5103,10 +5103,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5178,7 +5178,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -5206,7 +5206,7 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5310,17 +5310,17 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5329,13 +5329,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
         <v>0.25</v>
@@ -5354,10 +5354,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0.25</v>
@@ -5366,11 +5366,11 @@
         <v>-0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5379,23 +5379,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5404,16 +5404,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5438,14 +5438,14 @@
         <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5454,16 +5454,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -5479,23 +5479,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.25</v>
       </c>
-      <c r="E9" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5504,23 +5504,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5529,10 +5529,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>-0.25</v>
@@ -5541,11 +5541,11 @@
         <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5557,20 +5557,20 @@
         <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5582,20 +5582,20 @@
         <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5604,23 +5604,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
         <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -5654,10 +5654,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.25</v>
@@ -5666,11 +5666,11 @@
         <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5682,13 +5682,13 @@
         <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5716,11 +5716,11 @@
         <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5729,23 +5729,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
         <v>-0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5754,16 +5754,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -5782,7 +5782,7 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>-0.25</v>
@@ -5791,11 +5791,11 @@
         <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5804,16 +5804,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -5829,23 +5829,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
         <v>-0.25</v>
@@ -5879,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5907,13 +5907,13 @@
         <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -5929,16 +5929,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.25</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -5960,17 +5960,17 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E28" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5982,20 +5982,20 @@
         <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.25</v>
       </c>
-      <c r="E29" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6004,16 +6004,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E30" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.25</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -6029,10 +6029,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
@@ -6041,11 +6041,11 @@
         <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6111,17 +6111,17 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6133,13 +6133,13 @@
         <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -6155,16 +6155,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -6183,20 +6183,20 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6205,23 +6205,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6239,14 +6239,14 @@
         <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6255,16 +6255,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -6286,17 +6286,17 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="n">
         <v>-0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6305,10 +6305,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>-0.25</v>
@@ -6330,16 +6330,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6358,20 +6358,20 @@
         <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
         <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>-0.25</v>
@@ -6405,16 +6405,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6430,23 +6430,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6461,17 +6461,17 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6489,14 +6489,14 @@
         <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
         <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6530,16 +6530,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6555,16 +6555,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -6580,23 +6580,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6605,23 +6605,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6630,23 +6630,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6658,13 +6658,13 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -6680,16 +6680,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -6705,16 +6705,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6736,17 +6736,17 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6758,7 +6758,7 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
@@ -6780,7 +6780,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -6789,14 +6789,14 @@
         <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6805,23 +6805,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.25</v>
       </c>
-      <c r="E30" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6839,7 +6839,7 @@
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,11 +7399,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_12.jpeg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,11 +7546,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7567,11 +7567,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7592,7 +7592,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_27.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,19 +7609,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_14.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,11 +7672,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_28.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7735,11 +7735,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,17 +7875,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7894,17 +7894,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -7935,7 +7935,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8046,17 +8046,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8122,17 +8122,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8163,14 +8163,14 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8258,17 +8258,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8277,17 +8277,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8337,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8413,14 +8413,14 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8429,10 +8429,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
         <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8486,17 +8486,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8524,17 +8524,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -8720,14 +8720,14 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8834,14 +8834,14 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8929,14 +8929,14 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9236,14 +9236,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9319,11 +9319,11 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,14 +9624,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9659,11 +9659,11 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>

--- a/participants/participant_40/participant_40_conditions.xlsx
+++ b/participants/participant_40/participant_40_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-1650291262568224" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16502912625910232" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16502912625930326" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16502912626217852" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_2-16502912632942007" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_6-16502912634965765" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_0-1650291264204073" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16502912646887205" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16502912647515936" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16502912647918277" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16502912650122123" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-1650291265115218" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16502912657252526" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16502912657404704" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16502912657529967" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16502912657539976" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-1650291265768922" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-1650291265768922" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16502912657844229" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16502912657905576" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16502912658150175" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16502912658312628" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16502912658630412" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-1650477876135491" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16504778761565275" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16504778761574938" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16504778761725276" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_3-16504778761954908" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_9-16504778764075222" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_0-16504778765004919" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16504778766674917" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16504778768455245" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16504778768885252" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16504778769953644" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-1650477877011329" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16504778773443651" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16504778773653316" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16504778773773649" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16504778773773649" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16504778773933637" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16504778773943307" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16504778774093642" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16504778774143324" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-1650477877426369" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-1650477877441391" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16504778774574287" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -780,7 +780,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -822,7 +822,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -986,14 +986,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1130,14 +1130,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2310,14 +2310,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3231,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,11 +3252,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_19.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
         <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4355,7 +4355,7 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
         <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
         <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
         <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
         <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
         <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4778,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4903,10 +4903,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -5053,7 +5053,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5153,10 +5153,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5206,7 +5206,7 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -5313,7 +5313,7 @@
         <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5332,7 +5332,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.25</v>
@@ -5341,11 +5341,11 @@
         <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5354,23 +5354,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
         <v>-0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5379,23 +5379,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5404,16 +5404,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5429,23 +5429,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5454,23 +5454,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5479,16 +5479,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E9" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -5516,11 +5516,11 @@
         <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5529,16 +5529,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -5557,7 +5557,7 @@
         <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -5579,16 +5579,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E14" t="n">
         <v>-0.25</v>
@@ -5632,10 +5632,10 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
         <v>-0.25</v>
@@ -5654,16 +5654,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -5679,16 +5679,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5704,10 +5704,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0.25</v>
@@ -5729,23 +5729,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.25</v>
       </c>
-      <c r="E19" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5760,17 +5760,17 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
         <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5779,16 +5779,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>-0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -5804,10 +5804,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5816,11 +5816,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5832,13 +5832,13 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -5854,7 +5854,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -5879,10 +5879,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>-0.25</v>
@@ -5904,16 +5904,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -5935,17 +5935,17 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.25</v>
       </c>
-      <c r="E27" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5957,13 +5957,13 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -5988,7 +5988,7 @@
         <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6010,10 +6010,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -6029,16 +6029,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -6114,14 +6114,14 @@
         <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6130,23 +6130,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -6183,13 +6183,13 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E5" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -6205,16 +6205,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -6230,13 +6230,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
         <v>-0.25</v>
@@ -6258,13 +6258,13 @@
         <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -6283,13 +6283,13 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>-0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -6308,13 +6308,13 @@
         <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6330,16 +6330,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6355,23 +6355,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
         <v>0.25</v>
@@ -6405,7 +6405,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -6417,11 +6417,11 @@
         <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6430,23 +6430,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
         <v>-0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6461,10 +6461,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6480,7 +6480,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -6489,14 +6489,14 @@
         <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
         <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>-0.25</v>
@@ -6530,7 +6530,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -6558,20 +6558,20 @@
         <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
         <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6580,23 +6580,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6605,23 +6605,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
         <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6630,16 +6630,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -6655,23 +6655,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6680,13 +6680,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
         <v>0.25</v>
@@ -6708,20 +6708,20 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6733,20 +6733,20 @@
         <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6758,7 +6758,7 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
@@ -6767,11 +6767,11 @@
         <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6780,16 +6780,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6805,16 +6805,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E30" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.25</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -6830,23 +6830,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,7 +7001,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,19 +7504,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7525,19 +7525,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7550,15 +7550,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7718,15 +7718,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7739,15 +7739,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,19 +7756,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7821,14 +7821,14 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7856,17 +7856,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7875,17 +7875,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7897,14 +7897,14 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7932,10 +7932,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7989,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8030,14 +8030,14 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8160,17 +8160,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8315,17 +8315,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8356,14 +8356,14 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8410,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -8432,14 +8432,14 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
         <v>9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8489,14 +8489,14 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8581,10 +8581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8717,17 +8717,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8755,17 +8755,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9124,14 +9124,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9220,14 +9220,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9236,14 +9236,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9464,14 +9464,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9627,11 +9627,11 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>

--- a/participants/participant_40/participant_40_conditions.xlsx
+++ b/participants/participant_40/participant_40_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-1650477876135491" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16504778761565275" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16504778761574938" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16504778761725276" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_3-16504778761954908" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_9-16504778764075222" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_0-16504778765004919" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16504778766674917" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16504778768455245" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16504778768885252" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16504778769953644" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-1650477877011329" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16504778773443651" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16504778773653316" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16504778773773649" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16504778773773649" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16504778773933637" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16504778773943307" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16504778774093642" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16504778774143324" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-1650477877426369" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-1650477877441391" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16504778774574287" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16509961746193836" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-1650996174643414" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-1650996174643414" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16509961746594186" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_8-16509961749313807" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_1-16509961750273814" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_8-1650996175227389" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-1650996175347419" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16509961757873776" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-1650996175883421" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16509961759874115" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16509961760514116" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16509961763313882" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16509961763554153" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16509961763794134" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16509961763794134" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-1650996176395416" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-1650996176395416" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16509961764114149" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16509961764114149" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16509961764274187" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16509961764434164" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16509961764594145" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1329,11 +1329,11 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1585,11 +1585,11 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1954,14 +1954,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2561,15 +2561,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3256,15 +3256,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3487,15 +3487,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3504,19 +3504,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,7 +3546,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3630,19 +3630,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
         <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -4005,7 +4005,7 @@
         <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4105,7 +4105,7 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
         <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -4230,7 +4230,7 @@
         <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4389,11 +4389,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -4528,10 +4528,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4706,7 +4706,7 @@
         <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4878,10 +4878,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
         <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5028,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5053,10 +5053,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5065,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5078,10 +5078,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5153,10 +5153,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5181,7 +5181,7 @@
         <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5228,7 +5228,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5307,20 +5307,20 @@
         <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E2" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5329,10 +5329,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0.25</v>
@@ -5341,11 +5341,11 @@
         <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5354,16 +5354,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5379,23 +5379,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
         <v>0.25</v>
@@ -5429,10 +5429,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5454,23 +5454,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -5488,7 +5488,7 @@
         <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5504,23 +5504,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
         <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5532,13 +5532,13 @@
         <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -5554,16 +5554,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -5579,10 +5579,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>-0.25</v>
@@ -5607,13 +5607,13 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5629,16 +5629,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5654,23 +5654,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5679,23 +5679,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E17" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5704,7 +5704,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -5713,14 +5713,14 @@
         <v>0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5732,10 +5732,10 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
         <v>0.25</v>
@@ -5757,7 +5757,7 @@
         <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0.25</v>
@@ -5779,10 +5779,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>-0.25</v>
@@ -5807,13 +5807,13 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -5829,16 +5829,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -5854,23 +5854,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.25</v>
       </c>
-      <c r="E24" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -5907,20 +5907,20 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5929,23 +5929,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5954,13 +5954,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
         <v>0.25</v>
@@ -5982,10 +5982,10 @@
         <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
         <v>-0.25</v>
@@ -6029,16 +6029,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6111,17 +6111,17 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E2" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6130,23 +6130,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6161,10 +6161,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -6180,16 +6180,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -6208,7 +6208,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -6217,11 +6217,11 @@
         <v>0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -6255,23 +6255,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6283,10 +6283,10 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
         <v>0.25</v>
@@ -6305,16 +6305,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6361,17 +6361,17 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6383,20 +6383,20 @@
         <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6417,11 +6417,11 @@
         <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6430,10 +6430,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>-0.25</v>
@@ -6442,11 +6442,11 @@
         <v>-0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6461,10 +6461,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6480,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6511,10 +6511,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -6530,10 +6530,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -6542,11 +6542,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6555,10 +6555,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>-0.25</v>
@@ -6567,11 +6567,11 @@
         <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
         <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0.25</v>
@@ -6605,23 +6605,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6633,20 +6633,20 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6661,17 +6661,17 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E24" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6680,16 +6680,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -6708,13 +6708,13 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -6730,16 +6730,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -6758,7 +6758,7 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
@@ -6767,11 +6767,11 @@
         <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6780,16 +6780,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6817,11 +6817,11 @@
         <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6830,16 +6830,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7420,11 +7420,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,11 +7630,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,19 +7693,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7718,15 +7718,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7856,17 +7856,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,17 +7894,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
         <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,10 +7932,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7992,7 +7992,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8122,17 +8122,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8315,17 +8315,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,17 +8524,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,10 +8562,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8679,10 +8679,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -8717,17 +8717,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8755,17 +8755,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8793,10 +8793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8910,14 +8910,14 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
         <v>8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9124,14 +9124,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9707,11 +9707,11 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>

--- a/participants/participant_40/participant_40_conditions.xlsx
+++ b/participants/participant_40/participant_40_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16509961746193836" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-1650996174643414" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-1650996174643414" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16509961746594186" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_8-16509961749313807" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_1-16509961750273814" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_8-1650996175227389" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-1650996175347419" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16509961757873776" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-1650996175883421" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16509961759874115" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16509961760514116" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16509961763313882" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16509961763554153" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16509961763794134" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16509961763794134" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-1650996176395416" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-1650996176395416" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16509961764114149" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16509961764114149" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16509961764274187" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16509961764434164" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16509961764594145" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16511687762552457" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-165116877627748" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-1651168776278482" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16511687762932503" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_2-16511687764590678" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_0-16511687765256202" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_2-16511687766329646" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-1651168777535989" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16511687776763244" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16511687777543514" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-1651168778431206" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16511687784860985" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16511687785961194" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16511687786260104" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-1651168778637545" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-1651168778638368" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16511687786674776" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-1651168778668445" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16511687786830719" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16511687786880698" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16511687787149816" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16511687787299964" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16511687787614784" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -675,7 +675,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -822,7 +822,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -986,14 +986,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1829,11 +1829,11 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1909,11 +1909,11 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1922,14 +1922,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1954,14 +1954,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2214,14 +2214,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3155,15 +3155,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3231,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,11 +3252,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,11 +3294,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3315,19 +3315,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3445,15 +3445,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,19 +3525,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3546,19 +3546,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
         <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4002,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4152,10 +4152,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4189,11 +4189,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
         <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
         <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4389,11 +4389,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
         <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4581,7 +4581,7 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
         <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4828,10 +4828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
         <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -5078,10 +5078,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5153,10 +5153,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5307,20 +5307,20 @@
         <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
         <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
         <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -5379,23 +5379,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5407,20 +5407,20 @@
         <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5435,17 +5435,17 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5460,10 +5460,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -5504,16 +5504,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5529,23 +5529,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.25</v>
       </c>
-      <c r="E11" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5554,16 +5554,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -5579,23 +5579,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E13" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5610,10 +5610,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5629,23 +5629,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
         <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5682,10 +5682,10 @@
         <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
         <v>-0.25</v>
@@ -5704,23 +5704,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5732,13 +5732,13 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5754,23 +5754,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5779,13 +5779,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
         <v>0.25</v>
@@ -5804,16 +5804,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -5829,16 +5829,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -5854,23 +5854,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5879,23 +5879,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>-0.25</v>
@@ -5916,11 +5916,11 @@
         <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5929,23 +5929,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5954,16 +5954,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -5979,23 +5979,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.25</v>
       </c>
-      <c r="E29" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6010,17 +6010,17 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="n">
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6029,23 +6029,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -6117,11 +6117,11 @@
         <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6130,23 +6130,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.25</v>
       </c>
-      <c r="E3" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -6164,14 +6164,14 @@
         <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6180,13 +6180,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
         <v>0.25</v>
@@ -6205,23 +6205,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
         <v>0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6230,23 +6230,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6258,13 +6258,13 @@
         <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -6280,23 +6280,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6311,10 +6311,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
         <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -6389,14 +6389,14 @@
         <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6405,23 +6405,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.25</v>
       </c>
-      <c r="E14" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6430,16 +6430,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -6455,23 +6455,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
         <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6536,10 +6536,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -6555,23 +6555,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>-0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6586,17 +6586,17 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6605,23 +6605,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6630,23 +6630,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E23" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6658,20 +6658,20 @@
         <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.25</v>
       </c>
-      <c r="E24" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6683,20 +6683,20 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
         <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6705,16 +6705,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -6733,20 +6733,20 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -6764,7 +6764,7 @@
         <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -6792,11 +6792,11 @@
         <v>0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6805,16 +6805,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -6830,23 +6830,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7424,15 +7424,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7466,15 +7466,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,19 +7504,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7588,11 +7588,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,19 +7609,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7735,11 +7735,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,17 +7818,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -7859,7 +7859,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,17 +7894,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,10 +7932,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7951,17 +7951,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7989,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8046,17 +8046,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8106,14 +8106,14 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8125,14 +8125,14 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8141,10 +8141,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8163,14 +8163,14 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8258,17 +8258,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8372,17 +8372,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8429,10 +8429,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8508,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8682,14 +8682,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8755,17 +8755,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8796,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -9172,14 +9172,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9220,14 +9220,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9544,7 +9544,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9563,11 +9563,11 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9624,14 +9624,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9691,11 +9691,11 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9723,11 +9723,11 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>

--- a/participants/participant_40/participant_40_conditions.xlsx
+++ b/participants/participant_40/participant_40_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16511687762552457" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-165116877627748" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-1651168776278482" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16511687762932503" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_2-16511687764590678" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_0-16511687765256202" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_2-16511687766329646" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-1651168777535989" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16511687776763244" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16511687777543514" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-1651168778431206" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16511687784860985" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16511687785961194" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16511687786260104" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-1651168778637545" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-1651168778638368" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16511687786674776" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-1651168778668445" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16511687786830719" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16511687786880698" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16511687787149816" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16511687787299964" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16511687787614784" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16512555999305174" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16512555999435182" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16512555999445162" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-165125559996052" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_8-16512555999785135" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_3-1651255600128664" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_0-16512556002586462" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16512556003676436" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16512556004236436" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16512556009546444" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-1651255601022649" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-1651255601093645" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16512556013146465" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16512556013396444" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16512556013516526" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16512556013526456" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16512556013676443" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16512556013686452" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16512556013836467" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16512556013896458" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-1651255601415647" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16512556014326515" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16512556014476454" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -675,7 +675,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1085,11 +1085,11 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1130,14 +1130,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1454,14 +1454,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1486,14 +1486,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1922,14 +1922,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1954,14 +1954,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2185,11 +2185,11 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2214,14 +2214,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2310,14 +2310,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2561,15 +2561,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,15 +2867,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3256,15 +3256,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,11 +3294,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3315,19 +3315,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3336,11 +3336,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3424,15 +3424,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,19 +3546,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3705,7 +3705,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
         <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
         <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3927,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4002,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
         <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
         <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -4205,7 +4205,7 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -4330,7 +4330,7 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4355,7 +4355,7 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
         <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -4678,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
         <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4778,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -4828,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5028,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -5078,10 +5078,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5228,7 +5228,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5304,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>-0.25</v>
@@ -5316,11 +5316,11 @@
         <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5329,23 +5329,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.25</v>
       </c>
-      <c r="E3" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5354,10 +5354,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
@@ -5379,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -5388,7 +5388,7 @@
         <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -5404,23 +5404,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5429,16 +5429,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5454,23 +5454,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
         <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -5504,16 +5504,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5532,13 +5532,13 @@
         <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>-0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -5566,11 +5566,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5579,16 +5579,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5604,16 +5604,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5629,10 +5629,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -5654,16 +5654,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5679,23 +5679,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
         <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5704,10 +5704,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -5716,11 +5716,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5729,23 +5729,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5754,10 +5754,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -5785,17 +5785,17 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5810,10 +5810,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -5832,13 +5832,13 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -5860,17 +5860,17 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -5891,11 +5891,11 @@
         <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5904,23 +5904,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
         <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5929,10 +5929,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>-0.25</v>
@@ -5954,7 +5954,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -5963,7 +5963,7 @@
         <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -5982,20 +5982,20 @@
         <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6016,11 +6016,11 @@
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -6038,7 +6038,7 @@
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6105,13 +6105,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
         <v>-0.25</v>
@@ -6133,20 +6133,20 @@
         <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E3" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6155,13 +6155,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
         <v>0.25</v>
@@ -6186,10 +6186,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E5" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -6205,23 +6205,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6230,16 +6230,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -6258,20 +6258,20 @@
         <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6280,23 +6280,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6308,13 +6308,13 @@
         <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6333,20 +6333,20 @@
         <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
         <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -6367,11 +6367,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6386,17 +6386,17 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6408,20 +6408,20 @@
         <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
         <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
         <v>0.25</v>
@@ -6455,23 +6455,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6480,16 +6480,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6505,13 +6505,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
         <v>0.25</v>
@@ -6533,20 +6533,20 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6555,10 +6555,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>-0.25</v>
@@ -6580,16 +6580,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6608,20 +6608,20 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6630,7 +6630,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -6639,14 +6639,14 @@
         <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6658,20 +6658,20 @@
         <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E24" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6683,20 +6683,20 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6705,16 +6705,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -6730,10 +6730,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -6755,16 +6755,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -6780,16 +6780,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6808,20 +6808,20 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6830,23 +6830,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E31" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7361,15 +7361,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,19 +7462,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7609,19 +7609,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7856,17 +7856,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,10 +7932,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7951,17 +7951,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -7992,14 +7992,14 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8027,17 +8027,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8068,7 +8068,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8103,17 +8103,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8125,14 +8125,14 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8141,10 +8141,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8261,14 +8261,14 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8372,17 +8372,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8410,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8448,17 +8448,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8679,10 +8679,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8720,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8831,10 +8831,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8850,17 +8850,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9563,11 +9563,11 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
